--- a/data/trans_orig/P2A_senso_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48008E4D-D839-4B2D-9BBA-3EF543490D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3837646F-11C9-4640-B5A7-2FFF1D7E9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{628C1258-143B-4802-91ED-7A110DD84CE7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E0AAF8E-22DB-45E8-82CE-B3BAA15EBF10}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="466">
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="468">
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,1363 +80,1369 @@
     <t>0,33%</t>
   </si>
   <si>
-    <t>3,82%</t>
+    <t>3,65%</t>
   </si>
   <si>
     <t>1,27%</t>
   </si>
   <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>3,72%</t>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>99,46%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>96,98%</t>
   </si>
   <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>Hogares con personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
     <t>95,73%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
   </si>
 </sst>
 </file>
@@ -1848,7 +1854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D595C6-E04C-4768-81AF-12DA66A1DF15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC79CDF5-2D4E-476A-9A46-CD660F743608}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2440,10 +2446,10 @@
         <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2452,13 +2458,13 @@
         <v>3836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2467,13 +2473,13 @@
         <v>12659</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2494,13 @@
         <v>349848</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>380</v>
@@ -2503,13 +2509,13 @@
         <v>367620</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M14" s="7">
         <v>733</v>
@@ -2518,13 +2524,13 @@
         <v>717468</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,7 +2586,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2592,13 +2598,13 @@
         <v>6159</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2607,13 +2613,13 @@
         <v>10566</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2622,13 +2628,13 @@
         <v>16725</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2649,13 @@
         <v>197149</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2658,13 +2664,13 @@
         <v>197102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -2673,13 +2679,13 @@
         <v>394251</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2741,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2747,13 +2753,13 @@
         <v>1019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2762,13 +2768,13 @@
         <v>953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2777,13 +2783,13 @@
         <v>1972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,10 +2804,10 @@
         <v>269792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>58</v>
@@ -2813,10 +2819,10 @@
         <v>277191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>58</v>
@@ -2828,10 +2834,10 @@
         <v>546983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>58</v>
@@ -2890,7 +2896,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2902,13 +2908,13 @@
         <v>10261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -2917,13 +2923,13 @@
         <v>11224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2932,13 +2938,13 @@
         <v>21485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2959,13 @@
         <v>604766</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -2968,13 +2974,13 @@
         <v>626995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>1198</v>
@@ -2983,13 +2989,13 @@
         <v>1231761</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,7 +3051,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3057,13 +3063,13 @@
         <v>8129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3072,13 +3078,13 @@
         <v>14863</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M25" s="7">
         <v>22</v>
@@ -3087,13 +3093,13 @@
         <v>22991</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,13 +3114,13 @@
         <v>735666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -3123,13 +3129,13 @@
         <v>768648</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>1459</v>
@@ -3138,13 +3144,13 @@
         <v>1504315</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,10 +3218,10 @@
         <v>50714</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
@@ -3227,13 +3233,13 @@
         <v>53915</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>102</v>
@@ -3242,13 +3248,13 @@
         <v>104629</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,16 +3266,16 @@
         <v>3164</v>
       </c>
       <c r="D29" s="7">
-        <v>3225829</v>
+        <v>3225830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>3245</v>
@@ -3278,28 +3284,28 @@
         <v>3325283</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>6409</v>
       </c>
       <c r="N29" s="7">
-        <v>6551112</v>
+        <v>6551111</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,7 +3317,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -3341,7 +3347,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3379,7 +3385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941C7220-10B6-46A0-9C27-2E29F6E38E3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FA2B4-C6C9-4E08-AFBA-C523704AFB04}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3396,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3501,39 +3507,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,39 +3552,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,39 +3597,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,13 +3646,13 @@
         <v>7211</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3655,13 +3661,13 @@
         <v>10159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3670,13 +3676,13 @@
         <v>17369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,13 +3697,13 @@
         <v>498316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -3706,13 +3712,13 @@
         <v>513606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>168</v>
+        <v>62</v>
       </c>
       <c r="M8" s="7">
         <v>936</v>
@@ -3721,13 +3727,13 @@
         <v>1011923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,13 +3801,13 @@
         <v>6170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3810,13 +3816,13 @@
         <v>3910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3825,13 +3831,13 @@
         <v>10080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,13 +3852,13 @@
         <v>317876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -3861,13 +3867,13 @@
         <v>337110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>181</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -3876,7 +3882,7 @@
         <v>654986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>183</v>
@@ -3953,10 +3959,10 @@
         <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3965,7 +3971,7 @@
         <v>22975</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>188</v>
@@ -4007,7 +4013,7 @@
         <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>607</v>
@@ -4016,7 +4022,7 @@
         <v>653221</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>24</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>196</v>
@@ -4093,7 +4099,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4123,10 +4129,10 @@
         <v>204</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4135,13 +4141,13 @@
         <v>27548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4162,13 @@
         <v>197568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4171,13 +4177,13 @@
         <v>207094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>384</v>
@@ -4186,13 +4192,13 @@
         <v>404661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,7 +4254,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4260,13 +4266,13 @@
         <v>1057</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>218</v>
+        <v>144</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4275,13 +4281,13 @@
         <v>3063</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4290,13 +4296,13 @@
         <v>4120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,10 +4317,10 @@
         <v>272924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>58</v>
@@ -4326,13 +4332,13 @@
         <v>276968</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="M20" s="7">
         <v>526</v>
@@ -4341,13 +4347,13 @@
         <v>549892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4403,7 +4409,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4415,13 +4421,13 @@
         <v>7023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4430,13 +4436,13 @@
         <v>13383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4445,13 +4451,13 @@
         <v>20406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4472,13 @@
         <v>655765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -4481,13 +4487,13 @@
         <v>680470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M23" s="7">
         <v>1235</v>
@@ -4496,13 +4502,13 @@
         <v>1336235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4558,7 +4564,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4570,13 +4576,13 @@
         <v>7343</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4585,13 +4591,13 @@
         <v>11911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>250</v>
+        <v>88</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4600,13 +4606,13 @@
         <v>19254</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,13 +4627,13 @@
         <v>771755</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="H26" s="7">
         <v>746</v>
@@ -4636,13 +4642,13 @@
         <v>811942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M26" s="7">
         <v>1456</v>
@@ -4651,13 +4657,13 @@
         <v>1583697</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4731,13 @@
         <v>57692</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>260</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>71</v>
@@ -4740,13 +4746,13 @@
         <v>77898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="M28" s="7">
         <v>123</v>
@@ -4755,13 +4761,13 @@
         <v>135590</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4782,13 @@
         <v>3369087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>20</v>
+        <v>266</v>
       </c>
       <c r="H29" s="7">
         <v>3227</v>
@@ -4791,13 +4797,13 @@
         <v>3480411</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M29" s="7">
         <v>6384</v>
@@ -4806,13 +4812,13 @@
         <v>6849498</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>274</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4874,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4892,7 +4898,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE74A40-6718-4936-8B81-E4513DAA1304}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C0A68B-F6A4-4EF2-8552-33691F6C747D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4909,7 +4915,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5016,13 +5022,13 @@
         <v>2177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>221</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5031,13 +5037,13 @@
         <v>5754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5046,13 +5052,13 @@
         <v>7931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,10 +5073,10 @@
         <v>291584</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
@@ -5082,13 +5088,13 @@
         <v>282949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -5097,13 +5103,13 @@
         <v>574533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>26</v>
+        <v>282</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5177,13 @@
         <v>1987</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5186,13 +5192,13 @@
         <v>2153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5201,13 +5207,13 @@
         <v>4140</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>291</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,10 +5228,10 @@
         <v>500588</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>58</v>
@@ -5237,10 +5243,10 @@
         <v>520931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>58</v>
@@ -5252,13 +5258,13 @@
         <v>1021519</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>294</v>
+        <v>172</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5332,13 @@
         <v>1590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>297</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -5341,13 +5347,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>17</v>
+        <v>293</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5356,13 +5362,13 @@
         <v>3393</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>175</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,10 +5383,10 @@
         <v>316975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>58</v>
@@ -5392,10 +5398,10 @@
         <v>334506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>27</v>
+        <v>297</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>274</v>
+        <v>298</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>58</v>
@@ -5407,13 +5413,13 @@
         <v>651481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>302</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,13 +5487,13 @@
         <v>3745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5496,13 +5502,13 @@
         <v>8708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>307</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5511,13 +5517,13 @@
         <v>12454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>51</v>
+        <v>303</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5538,13 @@
         <v>366219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H14" s="7">
         <v>351</v>
@@ -5547,13 +5553,13 @@
         <v>378575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>312</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>314</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -5562,13 +5568,13 @@
         <v>744793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>57</v>
+        <v>308</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,7 +5630,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5636,13 +5642,13 @@
         <v>1746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5654,10 +5660,10 @@
         <v>50</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5666,13 +5672,13 @@
         <v>1746</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>15</v>
+        <v>285</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,10 +5693,10 @@
         <v>209475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>322</v>
+        <v>215</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>58</v>
@@ -5705,7 +5711,7 @@
         <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>323</v>
+        <v>122</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>28</v>
@@ -5717,10 +5723,10 @@
         <v>428062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>25</v>
+        <v>289</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>58</v>
@@ -5779,7 +5785,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5791,13 +5797,13 @@
         <v>6671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>231</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5806,13 +5812,13 @@
         <v>3809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>49</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5821,13 +5827,13 @@
         <v>10479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>329</v>
+        <v>71</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5848,13 @@
         <v>256452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5857,13 +5863,13 @@
         <v>269306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>56</v>
+        <v>326</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -5872,13 +5878,13 @@
         <v>525759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>195</v>
+        <v>328</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>334</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,7 +5940,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5946,13 +5952,13 @@
         <v>9494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5961,13 +5967,13 @@
         <v>8954</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>337</v>
+        <v>64</v>
       </c>
       <c r="M22" s="7">
         <v>16</v>
@@ -5976,13 +5982,13 @@
         <v>18448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6003,13 @@
         <v>647064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>184</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>638</v>
@@ -6012,13 +6018,13 @@
         <v>682340</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>165</v>
+        <v>336</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -6027,10 +6033,10 @@
         <v>1329404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>44</v>
@@ -6089,7 +6095,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6101,13 +6107,13 @@
         <v>7043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>345</v>
+        <v>36</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -6116,13 +6122,13 @@
         <v>6541</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>34</v>
+        <v>339</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>346</v>
+        <v>33</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -6131,13 +6137,13 @@
         <v>13583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>53</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6158,13 @@
         <v>771540</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="H26" s="7">
         <v>749</v>
@@ -6167,13 +6173,13 @@
         <v>819626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>22</v>
+        <v>344</v>
       </c>
       <c r="M26" s="7">
         <v>1493</v>
@@ -6182,13 +6188,13 @@
         <v>1591167</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6262,13 @@
         <v>34452</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>304</v>
+        <v>163</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>349</v>
+        <v>251</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>248</v>
+        <v>347</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -6271,13 +6277,13 @@
         <v>37722</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6286,13 +6292,13 @@
         <v>72174</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>350</v>
+        <v>233</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>351</v>
+        <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6313,13 @@
         <v>3359898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>257</v>
+        <v>349</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>353</v>
+        <v>258</v>
       </c>
       <c r="H29" s="7">
         <v>3303</v>
@@ -6322,13 +6328,13 @@
         <v>3506820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>182</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>259</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>6504</v>
@@ -6337,13 +6343,13 @@
         <v>6866718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>354</v>
+        <v>243</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>356</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6399,7 +6405,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6423,7 +6429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDB89C18-0E13-406E-9A14-4BABC65222CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A709179-977E-45D5-9D59-E7B70572018E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6440,7 +6446,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6547,13 +6553,13 @@
         <v>2116</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>38</v>
+        <v>190</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -6562,13 +6568,13 @@
         <v>4863</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -6577,13 +6583,13 @@
         <v>6980</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,10 +6604,10 @@
         <v>258182</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
@@ -6613,13 +6619,13 @@
         <v>266540</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
@@ -6628,13 +6634,13 @@
         <v>524720</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>71</v>
+        <v>125</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6708,13 @@
         <v>27177</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="H7" s="7">
         <v>50</v>
@@ -6717,13 +6723,13 @@
         <v>33968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -6735,10 +6741,10 @@
         <v>204</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6759,13 @@
         <v>492120</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="H8" s="7">
         <v>667</v>
@@ -6768,13 +6774,13 @@
         <v>520598</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="M8" s="7">
         <v>1025</v>
@@ -6783,13 +6789,13 @@
         <v>1012719</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6857,13 +6863,13 @@
         <v>7619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -6872,13 +6878,13 @@
         <v>5206</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>388</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
@@ -6887,13 +6893,13 @@
         <v>12826</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6914,13 @@
         <v>314621</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
@@ -6923,13 +6929,13 @@
         <v>368078</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>395</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
         <v>878</v>
@@ -6938,13 +6944,13 @@
         <v>682698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +7018,13 @@
         <v>8330</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -7027,13 +7033,13 @@
         <v>9009</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>18</v>
@@ -7042,13 +7048,13 @@
         <v>17338</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>268</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>361</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>84</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7069,13 @@
         <v>313910</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>588</v>
@@ -7078,13 +7084,13 @@
         <v>419547</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>139</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>873</v>
@@ -7093,13 +7099,13 @@
         <v>733458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>273</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7155,7 +7161,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7167,13 +7173,13 @@
         <v>1302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>406</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>30</v>
+        <v>407</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7185,7 +7191,7 @@
         <v>408</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>409</v>
@@ -7197,10 +7203,10 @@
         <v>7155</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>410</v>
@@ -7218,10 +7224,10 @@
         <v>195446</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>39</v>
+        <v>412</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>58</v>
@@ -7233,13 +7239,13 @@
         <v>253660</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>759</v>
@@ -7248,13 +7254,13 @@
         <v>449105</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>244</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,7 +7316,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7322,13 +7328,13 @@
         <v>7797</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
@@ -7337,13 +7343,13 @@
         <v>11551</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
@@ -7352,13 +7358,13 @@
         <v>19348</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,7 +7385,7 @@
         <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
@@ -7394,7 +7400,7 @@
         <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>395</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>800</v>
@@ -7403,13 +7409,13 @@
         <v>533497</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>425</v>
+        <v>328</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>426</v>
+        <v>307</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>427</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,7 +7471,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7477,13 +7483,13 @@
         <v>22278</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>333</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H22" s="7">
         <v>65</v>
@@ -7492,13 +7498,13 @@
         <v>149185</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="M22" s="7">
         <v>91</v>
@@ -7507,13 +7513,13 @@
         <v>171462</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>397</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7534,13 @@
         <v>605476</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>439</v>
+        <v>338</v>
       </c>
       <c r="H23" s="7">
         <v>895</v>
@@ -7543,13 +7549,13 @@
         <v>655018</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="M23" s="7">
         <v>1468</v>
@@ -7558,13 +7564,13 @@
         <v>1260495</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,7 +7626,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7632,13 +7638,13 @@
         <v>4895</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>288</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>10</v>
@@ -7647,13 +7653,13 @@
         <v>6934</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>443</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>100</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>233</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -7662,13 +7668,13 @@
         <v>11829</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>349</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>219</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>173</v>
+        <v>377</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7689,13 @@
         <v>854533</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>292</v>
+        <v>447</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H26" s="7">
         <v>1052</v>
@@ -7698,13 +7704,13 @@
         <v>861500</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>356</v>
+        <v>449</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>242</v>
+        <v>450</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>451</v>
+        <v>106</v>
       </c>
       <c r="M26" s="7">
         <v>1809</v>
@@ -7713,13 +7719,13 @@
         <v>1716033</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>353</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>180</v>
+        <v>385</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,7 +7799,7 @@
         <v>191</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>112</v>
+        <v>453</v>
       </c>
       <c r="H28" s="7">
         <v>187</v>
@@ -7802,13 +7808,13 @@
         <v>226568</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>274</v>
@@ -7817,13 +7823,13 @@
         <v>308081</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,10 +7844,10 @@
         <v>3303714</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>119</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>200</v>
@@ -7853,28 +7859,28 @@
         <v>3609013</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M29" s="7">
         <v>8469</v>
       </c>
       <c r="N29" s="7">
-        <v>6912727</v>
+        <v>6912728</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +7922,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -7930,7 +7936,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P2A_senso_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3837646F-11C9-4640-B5A7-2FFF1D7E9324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6882C2B1-8B00-42DC-9F8A-BF3E0F4F404F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E0AAF8E-22DB-45E8-82CE-B3BAA15EBF10}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2D73D366-F22C-4D37-8B45-4247EF73CED4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="483">
   <si>
     <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -242,177 +242,177 @@
     <t>4,58%</t>
   </si>
   <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
@@ -431,1018 +431,1063 @@
     <t>2,2%</t>
   </si>
   <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
     <t>1,9%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
     <t>96,16%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con limitación, discapacidad sensorial en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,88%</t>
   </si>
   <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
   </si>
   <si>
     <t>99,12%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>97,59%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
 </sst>
 </file>
@@ -1854,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC79CDF5-2D4E-476A-9A46-CD660F743608}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1543FC7F-3660-4BFA-BF82-030E56986A78}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2452,10 +2497,10 @@
         <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="7">
-        <v>3836</v>
+        <v>4789</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>67</v>
@@ -2467,10 +2512,10 @@
         <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>12659</v>
+        <v>13612</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>70</v>
@@ -2479,7 +2524,7 @@
         <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,10 +2548,10 @@
         <v>74</v>
       </c>
       <c r="H14" s="7">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I14" s="7">
-        <v>367620</v>
+        <v>366667</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>75</v>
@@ -2518,16 +2563,16 @@
         <v>77</v>
       </c>
       <c r="M14" s="7">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="N14" s="7">
-        <v>717468</v>
+        <v>716515</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>78</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>79</v>
@@ -2601,10 +2646,10 @@
         <v>81</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -2613,13 +2658,13 @@
         <v>10566</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -2628,13 +2673,13 @@
         <v>16725</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2694,13 @@
         <v>197149</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>188</v>
@@ -2664,13 +2709,13 @@
         <v>197102</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -2679,13 +2724,13 @@
         <v>394251</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2786,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2753,13 +2798,13 @@
         <v>1019</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -2768,13 +2813,13 @@
         <v>953</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -2783,13 +2828,13 @@
         <v>1972</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2849,10 @@
         <v>269792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>58</v>
@@ -2819,10 +2864,10 @@
         <v>277191</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>58</v>
@@ -2834,10 +2879,10 @@
         <v>546983</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>58</v>
@@ -2896,7 +2941,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2908,13 +2953,13 @@
         <v>10261</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H22" s="7">
         <v>11</v>
@@ -2923,13 +2968,13 @@
         <v>11224</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2938,13 +2983,13 @@
         <v>21485</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,13 +3004,13 @@
         <v>604766</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="H23" s="7">
         <v>610</v>
@@ -2974,13 +3019,13 @@
         <v>626995</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M23" s="7">
         <v>1198</v>
@@ -3063,7 +3108,7 @@
         <v>8129</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>128</v>
@@ -3072,34 +3117,34 @@
         <v>129</v>
       </c>
       <c r="H25" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>14863</v>
+        <v>16014</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="7">
-        <v>22991</v>
+        <v>24142</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,43 +3159,43 @@
         <v>735666</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H26" s="7">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I26" s="7">
-        <v>768648</v>
+        <v>767497</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="M26" s="7">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="N26" s="7">
-        <v>1504315</v>
+        <v>1503164</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,43 +3263,43 @@
         <v>50714</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>36</v>
       </c>
       <c r="H28" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I28" s="7">
-        <v>53915</v>
+        <v>56019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M28" s="7">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N28" s="7">
-        <v>104629</v>
+        <v>106733</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,46 +3311,46 @@
         <v>3164</v>
       </c>
       <c r="D29" s="7">
-        <v>3225830</v>
+        <v>3225829</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H29" s="7">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="I29" s="7">
-        <v>3325283</v>
+        <v>3323178</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="M29" s="7">
-        <v>6409</v>
+        <v>6407</v>
       </c>
       <c r="N29" s="7">
-        <v>6551111</v>
+        <v>6549008</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3362,7 @@
         <v>3214</v>
       </c>
       <c r="D30" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -3332,7 +3377,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -3347,7 +3392,7 @@
         <v>6511</v>
       </c>
       <c r="N30" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -3361,7 +3406,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{147FA2B4-C6C9-4E08-AFBA-C523704AFB04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{657A4B65-FA38-477C-87B1-F910E3A78BB7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3402,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3503,43 +3548,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="D4" s="7">
+        <v>10441</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10453</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N4" s="7">
+        <v>20895</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,43 +3599,49 @@
         <v>19</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>272</v>
+      </c>
+      <c r="D5" s="7">
+        <v>284297</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>247</v>
+      </c>
+      <c r="I5" s="7">
+        <v>276792</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>519</v>
+      </c>
+      <c r="N5" s="7">
+        <v>561088</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,43 +3650,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,13 +3709,13 @@
         <v>7211</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3661,13 +3724,13 @@
         <v>10159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3676,13 +3739,13 @@
         <v>17369</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3697,13 +3760,13 @@
         <v>498316</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>166</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>470</v>
@@ -3712,10 +3775,10 @@
         <v>513606</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>62</v>
@@ -3727,13 +3790,13 @@
         <v>1011923</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,13 +3864,13 @@
         <v>6170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>194</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3816,13 +3879,13 @@
         <v>3910</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -3831,13 +3894,13 @@
         <v>10080</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,13 +3915,13 @@
         <v>317876</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="H11" s="7">
         <v>313</v>
@@ -3867,13 +3930,13 @@
         <v>337110</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -3882,13 +3945,13 @@
         <v>654986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,49 +4013,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>13838</v>
+        <v>3397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I13" s="7">
-        <v>22975</v>
+        <v>12522</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>188</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>36813</v>
+        <v>15919</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4001,49 +4064,49 @@
         <v>19</v>
       </c>
       <c r="C14" s="7">
-        <v>613</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7">
-        <v>654882</v>
+        <v>370585</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="H14" s="7">
-        <v>607</v>
+        <v>360</v>
       </c>
       <c r="I14" s="7">
-        <v>653221</v>
+        <v>376429</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
-        <v>1220</v>
+        <v>701</v>
       </c>
       <c r="N14" s="7">
-        <v>1308103</v>
+        <v>747014</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,10 +4115,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -4067,10 +4130,10 @@
         <v>28</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -4082,10 +4145,10 @@
         <v>28</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -4111,13 +4174,13 @@
         <v>15050</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -4126,13 +4189,13 @@
         <v>12497</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4141,13 +4204,13 @@
         <v>27548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4225,13 @@
         <v>197568</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -4177,13 +4240,13 @@
         <v>207094</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M17" s="7">
         <v>384</v>
@@ -4192,13 +4255,13 @@
         <v>404661</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4317,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4266,13 +4329,13 @@
         <v>1057</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4281,13 +4344,13 @@
         <v>3063</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -4296,13 +4359,13 @@
         <v>4120</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>223</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,10 +4380,10 @@
         <v>272924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>58</v>
@@ -4332,10 +4395,10 @@
         <v>276968</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>22</v>
@@ -4347,13 +4410,13 @@
         <v>549892</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4409,7 +4472,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4421,13 +4484,13 @@
         <v>7023</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="H22" s="7">
         <v>12</v>
@@ -4436,13 +4499,13 @@
         <v>13383</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="M22" s="7">
         <v>19</v>
@@ -4451,13 +4514,13 @@
         <v>20406</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4535,13 @@
         <v>655765</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="H23" s="7">
         <v>624</v>
@@ -4487,13 +4550,13 @@
         <v>680470</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="M23" s="7">
         <v>1235</v>
@@ -4502,13 +4565,13 @@
         <v>1336235</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4639,13 @@
         <v>7343</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -4591,13 +4654,13 @@
         <v>11911</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -4609,10 +4672,10 @@
         <v>31</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,10 +4690,10 @@
         <v>771755</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>25</v>
@@ -4642,13 +4705,13 @@
         <v>811942</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="M26" s="7">
         <v>1456</v>
@@ -4660,10 +4723,10 @@
         <v>41</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,10 +4794,10 @@
         <v>57692</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>129</v>
@@ -4746,13 +4809,13 @@
         <v>77898</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M28" s="7">
         <v>123</v>
@@ -4761,13 +4824,13 @@
         <v>135590</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4845,13 @@
         <v>3369087</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="H29" s="7">
         <v>3227</v>
@@ -4797,13 +4860,13 @@
         <v>3480411</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="M29" s="7">
         <v>6384</v>
@@ -4812,13 +4875,13 @@
         <v>6849498</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>189</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4874,7 +4937,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4898,7 +4961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C0A68B-F6A4-4EF2-8552-33691F6C747D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF8938C-0C98-4169-9670-BBB4E17D5379}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4915,7 +4978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5022,13 +5085,13 @@
         <v>2177</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -5037,13 +5100,13 @@
         <v>5754</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -5052,13 +5115,13 @@
         <v>7931</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5073,10 +5136,10 @@
         <v>291584</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
@@ -5088,13 +5151,13 @@
         <v>282949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="M5" s="7">
         <v>535</v>
@@ -5103,13 +5166,13 @@
         <v>574533</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,7 +5246,7 @@
         <v>50</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5192,13 +5255,13 @@
         <v>2153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -5210,10 +5273,10 @@
         <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,7 +5294,7 @@
         <v>25</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>58</v>
@@ -5243,10 +5306,10 @@
         <v>520931</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>58</v>
@@ -5261,10 +5324,10 @@
         <v>25</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,7 +5395,7 @@
         <v>1590</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>50</v>
@@ -5347,13 +5410,13 @@
         <v>1803</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -5365,10 +5428,10 @@
         <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5383,7 +5446,7 @@
         <v>316975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>72</v>
@@ -5398,10 +5461,10 @@
         <v>334506</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>58</v>
@@ -5413,13 +5476,13 @@
         <v>651481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5550,13 @@
         <v>3745</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5502,13 +5565,13 @@
         <v>8708</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>134</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -5517,13 +5580,13 @@
         <v>12454</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5601,13 @@
         <v>366219</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="H14" s="7">
         <v>351</v>
@@ -5553,13 +5616,13 @@
         <v>378575</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>140</v>
+        <v>327</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
         <v>702</v>
@@ -5568,13 +5631,13 @@
         <v>744793</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5705,13 @@
         <v>1746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5660,10 +5723,10 @@
         <v>50</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5672,13 +5735,13 @@
         <v>1746</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,10 +5756,10 @@
         <v>209475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>58</v>
@@ -5711,7 +5774,7 @@
         <v>58</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>28</v>
@@ -5723,10 +5786,10 @@
         <v>428062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>58</v>
@@ -5785,7 +5848,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5797,13 +5860,13 @@
         <v>6671</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>315</v>
+        <v>336</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>338</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5812,13 +5875,13 @@
         <v>3809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5827,13 +5890,13 @@
         <v>10479</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5911,13 @@
         <v>256452</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -5863,13 +5926,13 @@
         <v>269306</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>326</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>512</v>
@@ -5878,13 +5941,13 @@
         <v>525759</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5940,7 +6003,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5952,13 +6015,13 @@
         <v>9494</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>329</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -5967,10 +6030,10 @@
         <v>8954</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>330</v>
+        <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>331</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>64</v>
@@ -5982,13 +6045,13 @@
         <v>18448</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>332</v>
+        <v>353</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>333</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6066,13 @@
         <v>647064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H23" s="7">
         <v>638</v>
@@ -6018,13 +6081,13 @@
         <v>682340</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>1210</v>
@@ -6033,10 +6096,10 @@
         <v>1329404</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>337</v>
+        <v>358</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>44</v>
@@ -6107,7 +6170,7 @@
         <v>7043</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>49</v>
@@ -6122,10 +6185,10 @@
         <v>6541</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>339</v>
+        <v>360</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>340</v>
+        <v>361</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>33</v>
@@ -6137,13 +6200,13 @@
         <v>13583</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>341</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>342</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,7 +6221,7 @@
         <v>771540</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>45</v>
@@ -6173,13 +6236,13 @@
         <v>819626</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="M26" s="7">
         <v>1493</v>
@@ -6188,13 +6251,13 @@
         <v>1591167</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>346</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6325,13 @@
         <v>34452</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="H28" s="7">
         <v>35</v>
@@ -6277,13 +6340,13 @@
         <v>37722</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="M28" s="7">
         <v>65</v>
@@ -6292,13 +6355,13 @@
         <v>72174</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6376,13 @@
         <v>3359898</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="H29" s="7">
         <v>3303</v>
@@ -6328,13 +6391,13 @@
         <v>3506820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>335</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="M29" s="7">
         <v>6504</v>
@@ -6343,10 +6406,10 @@
         <v>6866718</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>44</v>
@@ -6405,7 +6468,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A709179-977E-45D5-9D59-E7B70572018E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7276514B-190D-4BD4-9D79-7EEC24A4F5A8}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6446,7 +6509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6550,46 +6613,46 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>2116</v>
+        <v>2555</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>373</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>4863</v>
+        <v>4981</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>352</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>353</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
       </c>
       <c r="N4" s="7">
-        <v>6980</v>
+        <v>7536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>348</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>119</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6601,13 +6664,13 @@
         <v>329</v>
       </c>
       <c r="D5" s="7">
-        <v>258182</v>
+        <v>308888</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>198</v>
+        <v>379</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>58</v>
@@ -6616,31 +6679,31 @@
         <v>528</v>
       </c>
       <c r="I5" s="7">
-        <v>266540</v>
+        <v>284654</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>356</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>357</v>
+        <v>380</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>358</v>
+        <v>121</v>
       </c>
       <c r="M5" s="7">
         <v>857</v>
       </c>
       <c r="N5" s="7">
-        <v>524720</v>
+        <v>593541</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>125</v>
+        <v>381</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6652,7 +6715,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -6667,7 +6730,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -6682,7 +6745,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -6705,46 +6768,46 @@
         <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>27177</v>
+        <v>25608</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="H7" s="7">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>33968</v>
+        <v>29456</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>363</v>
+        <v>386</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>364</v>
+        <v>387</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="M7" s="7">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>61145</v>
+        <v>55064</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>204</v>
+        <v>389</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>366</v>
+        <v>390</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>367</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,46 +6819,46 @@
         <v>358</v>
       </c>
       <c r="D8" s="7">
-        <v>492120</v>
+        <v>492782</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>370</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="I8" s="7">
-        <v>520598</v>
+        <v>485513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>372</v>
+        <v>396</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="M8" s="7">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="N8" s="7">
-        <v>1012719</v>
+        <v>978295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>213</v>
+        <v>398</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,7 +6870,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -6822,7 +6885,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -6837,7 +6900,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -6860,46 +6923,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>7619</v>
+        <v>7370</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>376</v>
+        <v>283</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>377</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>5206</v>
+        <v>4846</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>403</v>
       </c>
       <c r="M10" s="7">
         <v>18</v>
       </c>
       <c r="N10" s="7">
-        <v>12826</v>
+        <v>12216</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>381</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6911,46 +6974,46 @@
         <v>351</v>
       </c>
       <c r="D11" s="7">
-        <v>314621</v>
+        <v>308680</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>385</v>
+        <v>152</v>
       </c>
       <c r="H11" s="7">
         <v>527</v>
       </c>
       <c r="I11" s="7">
-        <v>368078</v>
+        <v>344282</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>407</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="M11" s="7">
         <v>878</v>
       </c>
       <c r="N11" s="7">
-        <v>682698</v>
+        <v>652962</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>389</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6962,7 +7025,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -6977,7 +7040,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -6992,7 +7055,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -7015,46 +7078,46 @@
         <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>8330</v>
+        <v>7675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>9009</v>
+        <v>7372</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="M13" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N13" s="7">
-        <v>17338</v>
+        <v>15047</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>161</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>37</v>
+        <v>415</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,46 +7129,46 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>313910</v>
+        <v>304882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>418</v>
       </c>
       <c r="H14" s="7">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I14" s="7">
-        <v>419547</v>
+        <v>468346</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="M14" s="7">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="N14" s="7">
-        <v>733458</v>
+        <v>773227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7180,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -7132,7 +7195,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -7147,7 +7210,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -7170,46 +7233,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1302</v>
+        <v>1177</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>5853</v>
+        <v>5252</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>377</v>
+        <v>426</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>409</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
       </c>
       <c r="N16" s="7">
-        <v>7155</v>
+        <v>6429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>147</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,13 +7284,13 @@
         <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>195446</v>
+        <v>177565</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>58</v>
@@ -7236,31 +7299,31 @@
         <v>482</v>
       </c>
       <c r="I17" s="7">
-        <v>253660</v>
+        <v>253527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>414</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>759</v>
       </c>
       <c r="N17" s="7">
-        <v>449105</v>
+        <v>431092</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7335,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -7287,7 +7350,7 @@
         <v>495</v>
       </c>
       <c r="I18" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -7302,7 +7365,7 @@
         <v>774</v>
       </c>
       <c r="N18" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -7316,7 +7379,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7325,46 +7388,46 @@
         <v>12</v>
       </c>
       <c r="D19" s="7">
-        <v>7797</v>
+        <v>7402</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>284</v>
+        <v>436</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>11551</v>
+        <v>10747</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="M19" s="7">
         <v>31</v>
       </c>
       <c r="N19" s="7">
-        <v>19348</v>
+        <v>18149</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>321</v>
+        <v>440</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>441</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>302</v>
+        <v>442</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7439,46 @@
         <v>359</v>
       </c>
       <c r="D20" s="7">
-        <v>269426</v>
+        <v>262234</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>288</v>
+        <v>445</v>
       </c>
       <c r="H20" s="7">
         <v>441</v>
       </c>
       <c r="I20" s="7">
-        <v>264071</v>
+        <v>246309</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="M20" s="7">
         <v>800</v>
       </c>
       <c r="N20" s="7">
-        <v>533497</v>
+        <v>508543</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>448</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7490,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -7442,7 +7505,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -7457,7 +7520,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -7471,7 +7534,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7480,46 +7543,46 @@
         <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>22278</v>
+        <v>21750</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>333</v>
+        <v>147</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I22" s="7">
-        <v>149185</v>
+        <v>240185</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>429</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N22" s="7">
-        <v>171462</v>
+        <v>261934</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>431</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7594,46 @@
         <v>573</v>
       </c>
       <c r="D23" s="7">
-        <v>605476</v>
+        <v>602529</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>457</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>338</v>
+        <v>154</v>
       </c>
       <c r="H23" s="7">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I23" s="7">
-        <v>655018</v>
+        <v>609080</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>435</v>
+        <v>458</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>436</v>
+        <v>459</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>437</v>
+        <v>460</v>
       </c>
       <c r="M23" s="7">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="N23" s="7">
-        <v>1260495</v>
+        <v>1211610</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>438</v>
+        <v>461</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>439</v>
+        <v>462</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7645,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>28</v>
@@ -7597,7 +7660,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>28</v>
@@ -7612,7 +7675,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>28</v>
@@ -7632,49 +7695,49 @@
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>4895</v>
+        <v>3218</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>442</v>
+        <v>55</v>
       </c>
       <c r="H25" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" s="7">
-        <v>6934</v>
+        <v>4616</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>443</v>
+        <v>295</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>444</v>
+        <v>37</v>
       </c>
       <c r="M25" s="7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N25" s="7">
-        <v>11829</v>
+        <v>7833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>464</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>377</v>
+        <v>465</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,49 +7746,49 @@
         <v>19</v>
       </c>
       <c r="C26" s="7">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D26" s="7">
-        <v>854533</v>
+        <v>925502</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>446</v>
+        <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>447</v>
+        <v>62</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>448</v>
+        <v>466</v>
       </c>
       <c r="H26" s="7">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="I26" s="7">
-        <v>861500</v>
+        <v>713115</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>449</v>
+        <v>302</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>450</v>
+        <v>47</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
       <c r="M26" s="7">
-        <v>1809</v>
+        <v>1811</v>
       </c>
       <c r="N26" s="7">
-        <v>1716033</v>
+        <v>1638619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>259</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>224</v>
+        <v>468</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7800,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>28</v>
@@ -7752,7 +7815,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>28</v>
@@ -7767,7 +7830,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>28</v>
@@ -7787,49 +7850,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="7">
-        <v>81514</v>
+        <v>76755</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>191</v>
+        <v>323</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="H28" s="7">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I28" s="7">
-        <v>226568</v>
+        <v>307454</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="M28" s="7">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="N28" s="7">
-        <v>308081</v>
+        <v>384209</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,49 +7901,49 @@
         <v>19</v>
       </c>
       <c r="C29" s="7">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="D29" s="7">
-        <v>3303714</v>
+        <v>3383062</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>200</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
-        <v>5180</v>
+        <v>5185</v>
       </c>
       <c r="I29" s="7">
-        <v>3609013</v>
+        <v>3404826</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>462</v>
+        <v>478</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>463</v>
+        <v>479</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="M29" s="7">
-        <v>8469</v>
+        <v>8475</v>
       </c>
       <c r="N29" s="7">
-        <v>6912728</v>
+        <v>6787888</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7955,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>28</v>
@@ -7907,7 +7970,7 @@
         <v>5367</v>
       </c>
       <c r="I30" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>28</v>
@@ -7922,7 +7985,7 @@
         <v>8743</v>
       </c>
       <c r="N30" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>28</v>
@@ -7936,7 +7999,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
